--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3897156666666667</v>
+        <v>0.013731</v>
       </c>
       <c r="H2">
-        <v>1.169147</v>
+        <v>0.041193</v>
       </c>
       <c r="I2">
-        <v>0.01604749516233659</v>
+        <v>0.0005742988327511807</v>
       </c>
       <c r="J2">
-        <v>0.01604749516233659</v>
+        <v>0.0005742988327511806</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>116.0644634355788</v>
+        <v>0.111802964856</v>
       </c>
       <c r="R2">
-        <v>1044.580170920209</v>
+        <v>1.006226683704</v>
       </c>
       <c r="S2">
-        <v>0.01420549372153515</v>
+        <v>0.0001000034559333985</v>
       </c>
       <c r="T2">
-        <v>0.01420549372153515</v>
+        <v>0.0001000034559333985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3897156666666667</v>
+        <v>0.013731</v>
       </c>
       <c r="H3">
-        <v>1.169147</v>
+        <v>0.041193</v>
       </c>
       <c r="I3">
-        <v>0.01604749516233659</v>
+        <v>0.0005742988327511807</v>
       </c>
       <c r="J3">
-        <v>0.01604749516233659</v>
+        <v>0.0005742988327511806</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>9.485813518761224</v>
+        <v>0.334217268041</v>
       </c>
       <c r="R3">
-        <v>85.37232166885101</v>
+        <v>3.007955412369</v>
       </c>
       <c r="S3">
-        <v>0.001160998469261943</v>
+        <v>0.0002989445036611238</v>
       </c>
       <c r="T3">
-        <v>0.001160998469261943</v>
+        <v>0.0002989445036611238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3897156666666667</v>
+        <v>0.013731</v>
       </c>
       <c r="H4">
-        <v>1.169147</v>
+        <v>0.041193</v>
       </c>
       <c r="I4">
-        <v>0.01604749516233659</v>
+        <v>0.0005742988327511807</v>
       </c>
       <c r="J4">
-        <v>0.01604749516233659</v>
+        <v>0.0005742988327511806</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>5.564061766466001</v>
+        <v>0.196040700054</v>
       </c>
       <c r="R4">
-        <v>50.07655589819401</v>
+        <v>1.764366300486</v>
       </c>
       <c r="S4">
-        <v>0.0006810029715394976</v>
+        <v>0.0001753508731566584</v>
       </c>
       <c r="T4">
-        <v>0.0006810029715394977</v>
+        <v>0.0001753508731566583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>70.607376</v>
       </c>
       <c r="I5">
-        <v>0.9691437644584301</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="J5">
-        <v>0.9691437644584302</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>7009.389931321008</v>
+        <v>191.637267921792</v>
       </c>
       <c r="R5">
-        <v>63084.50938188907</v>
+        <v>1724.735411296128</v>
       </c>
       <c r="S5">
-        <v>0.8579012189759466</v>
+        <v>0.1714121723202705</v>
       </c>
       <c r="T5">
-        <v>0.8579012189759468</v>
+        <v>0.1714121723202705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>70.607376</v>
       </c>
       <c r="I6">
-        <v>0.9691437644584301</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="J6">
-        <v>0.9691437644584302</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>572.8692814377121</v>
@@ -818,10 +818,10 @@
         <v>5155.823532939408</v>
       </c>
       <c r="S6">
-        <v>0.07011526818663731</v>
+        <v>0.5124095592244883</v>
       </c>
       <c r="T6">
-        <v>0.07011526818663733</v>
+        <v>0.5124095592244883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>70.607376</v>
       </c>
       <c r="I7">
-        <v>0.9691437644584301</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="J7">
-        <v>0.9691437644584302</v>
+        <v>0.9843840851703864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>336.026009759328</v>
@@ -880,10 +880,10 @@
         <v>3024.234087833952</v>
       </c>
       <c r="S7">
-        <v>0.04112727729584612</v>
+        <v>0.3005623536256277</v>
       </c>
       <c r="T7">
-        <v>0.04112727729584612</v>
+        <v>0.3005623536256277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.078897</v>
       </c>
       <c r="I8">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686235</v>
       </c>
       <c r="J8">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>107.1050957726065</v>
+        <v>2.928261679757334</v>
       </c>
       <c r="R8">
-        <v>963.9458619534589</v>
+        <v>26.354355117816</v>
       </c>
       <c r="S8">
-        <v>0.01310892861178543</v>
+        <v>0.00261921755143291</v>
       </c>
       <c r="T8">
-        <v>0.01310892861178543</v>
+        <v>0.00261921755143291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.078897</v>
       </c>
       <c r="I9">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686235</v>
       </c>
       <c r="J9">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
         <v>8.753574826733445</v>
@@ -1004,10 +1004,10 @@
         <v>78.782173440601</v>
       </c>
       <c r="S9">
-        <v>0.001071377479043527</v>
+        <v>0.007829736318463707</v>
       </c>
       <c r="T9">
-        <v>0.001071377479043527</v>
+        <v>0.007829736318463705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.078897</v>
       </c>
       <c r="I10">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686235</v>
       </c>
       <c r="J10">
-        <v>0.01480874037923328</v>
+        <v>0.01504161599686234</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
         <v>5.134554976966</v>
@@ -1066,10 +1066,10 @@
         <v>46.210994792694</v>
       </c>
       <c r="S10">
-        <v>0.0006284342884043232</v>
+        <v>0.004592662126965728</v>
       </c>
       <c r="T10">
-        <v>0.0006284342884043233</v>
+        <v>0.004592662126965728</v>
       </c>
     </row>
   </sheetData>
